--- a/Test Data/Neuroverse Post Questionnaire (Responses).xlsx
+++ b/Test Data/Neuroverse Post Questionnaire (Responses).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msvieira\Documents\GitHub\Toolkitex\Test Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2B3EF-60B9-498D-9F62-6F3EBDFFCA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Timestamp</t>
   </si>
@@ -83,25 +92,30 @@
   </si>
   <si>
     <t xml:space="preserve">i enjoyed the experience of the project , i would like to see how this could be future used in augment reality </t>
+  </si>
+  <si>
+    <t>5/25/2025 10:19:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -110,11 +124,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -128,6 +148,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -142,6 +163,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -156,6 +178,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -170,6 +193,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -184,6 +208,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -198,6 +223,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -212,6 +238,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -226,6 +253,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -240,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -254,6 +283,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -268,6 +298,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -282,148 +313,120 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I24" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:I26">
   <tableColumns count="9">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="Participant number" id="2"/>
-    <tableColumn name="How intuitive were the controls?" id="3"/>
-    <tableColumn name="To what degree did you need help in order to complete tasks?" id="4"/>
-    <tableColumn name="Would you like to use a system like this again?" id="5"/>
-    <tableColumn name="Did the experience align with your expectations?" id="6"/>
-    <tableColumn name="Did you feel in control of the environment?" id="7"/>
-    <tableColumn name="If this system was implemented in  augmented  reality in daily life, would you use it?" id="8"/>
-    <tableColumn name="Do you have any comments regarding the experience? " id="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Participant number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="How intuitive were the controls?"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="To what degree did you need help in order to complete tasks?"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Would you like to use a system like this again?"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Did the experience align with your expectations?"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Did you feel in control of the environment?"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="If this system was implemented in  augmented  reality in daily life, would you use it?"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Do you have any comments regarding the experience? "/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -613,32 +616,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.88"/>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="28.5"/>
-    <col customWidth="1" min="4" max="6" width="37.63"/>
-    <col customWidth="1" min="7" max="7" width="35.75"/>
-    <col customWidth="1" min="8" max="9" width="37.63"/>
-    <col customWidth="1" min="10" max="15" width="18.88"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -678,628 +684,680 @@
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>45800.67883319444</v>
+        <v>45800.678833194441</v>
       </c>
       <c r="B3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>45800.69733152778</v>
+        <v>45800.697331527779</v>
       </c>
       <c r="B4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>45800.720479791664</v>
       </c>
       <c r="B5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45800.756187569445</v>
       </c>
       <c r="B6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>45800.77149623843</v>
+        <v>45800.771496238427</v>
       </c>
       <c r="B7" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>45800.79553013889</v>
+        <v>45800.795530138887</v>
       </c>
       <c r="B8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>45800.805034652774</v>
       </c>
       <c r="B9" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>45800.81403515046</v>
+        <v>45800.814035150463</v>
       </c>
       <c r="B10" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="11">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>45800.83294043981</v>
       </c>
-      <c r="B11" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="13">
-        <v>45800.85997122685</v>
-      </c>
-      <c r="B12" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E12" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F12" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45800.859971226848</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="11">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>45800.868559386574</v>
       </c>
-      <c r="B13" s="12">
-        <v>101.0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="B13" s="8">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>5</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13">
-        <v>45800.88042101852</v>
-      </c>
-      <c r="B14" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11">
-        <v>45800.88766921296</v>
-      </c>
-      <c r="B15" s="12">
-        <v>102.0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="16" t="s">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45800.880421018519</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>45800.887669212963</v>
+      </c>
+      <c r="B15" s="8">
+        <v>102</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="13">
-        <v>45800.90457675926</v>
-      </c>
-      <c r="B16" s="14">
-        <v>103.0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11">
-        <v>45800.91125233796</v>
-      </c>
-      <c r="B17" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="C17" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="13">
-        <v>45800.92348386574</v>
-      </c>
-      <c r="B18" s="14">
-        <v>104.0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="15" t="s">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45800.904576759262</v>
+      </c>
+      <c r="B16" s="5">
+        <v>103</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>45800.911252337959</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>45800.923483865743</v>
+      </c>
+      <c r="B18" s="5">
+        <v>104</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="11">
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>45800.9333066088</v>
       </c>
-      <c r="B19" s="12">
-        <v>14.0</v>
-      </c>
-      <c r="C19" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="I19" s="16" t="s">
+      <c r="B19" s="8">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="13">
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>45800.93852546296</v>
       </c>
-      <c r="B20" s="14">
-        <v>105.0</v>
-      </c>
-      <c r="C20" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F20" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11">
-        <v>45800.96067797454</v>
-      </c>
-      <c r="B21" s="12">
-        <v>106.0</v>
-      </c>
-      <c r="C21" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="I21" s="16" t="s">
+      <c r="B20" s="5">
+        <v>105</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>45800.941307870373</v>
+      </c>
+      <c r="B21" s="13">
+        <v>15</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>45800.960677974537</v>
+      </c>
+      <c r="B22" s="8">
+        <v>106</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="13">
-        <v>45801.53737939815</v>
-      </c>
-      <c r="B22" s="14">
-        <v>16.0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D22" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="G22" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="H22" s="14">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11">
-        <v>45801.55814920139</v>
-      </c>
-      <c r="B23" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="I23" s="16" t="s">
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>45801.537379398149</v>
+      </c>
+      <c r="B23" s="5">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>45801.558149201388</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="17">
-        <v>45801.57531300926</v>
-      </c>
-      <c r="B24" s="18">
-        <v>18.0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="D24" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="19" t="s">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>45801.575313009263</v>
+      </c>
+      <c r="B25" s="11">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>5</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11">
+        <v>5</v>
+      </c>
+      <c r="H25" s="11">
+        <v>5</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>